--- a/ip_registry_data.xlsx
+++ b/ip_registry_data.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitLocal\mJ_Rpeer_2025Mar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9D8116-A8C0-4AAA-95E8-EAEDBF28F678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE75EF59-6B32-44CC-91AA-9491074B420F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="登録時" sheetId="1" r:id="rId1"/>
-    <sheet name="追跡調査" sheetId="2" r:id="rId2"/>
+    <sheet name="症例登録票" sheetId="1" r:id="rId1"/>
+    <sheet name="アウトカム" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -261,22 +261,22 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -576,7 +576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M401"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
@@ -16874,7 +16874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q402"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F1" sqref="F1:I1"/>
     </sheetView>
@@ -16891,24 +16891,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="8" t="s">
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="10" t="s">
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
     </row>
     <row r="2" spans="1:17" s="5" customFormat="1" ht="36" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
@@ -16926,40 +16926,40 @@
       <c r="E2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="8" t="s">
         <v>37</v>
       </c>
     </row>

--- a/ip_registry_data.xlsx
+++ b/ip_registry_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitLocal\mJ_Rpeer_2025Mar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE75EF59-6B32-44CC-91AA-9491074B420F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2F1AF0-A8FF-48B5-ADB5-CA933808ABA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="症例登録票" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2012" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2012" uniqueCount="41">
   <si>
     <t>登録番号</t>
   </si>
@@ -140,10 +140,6 @@
   </si>
   <si>
     <t>FEV1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>%Dlco</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -576,7 +572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M401"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
@@ -637,7 +633,7 @@
         <v>36</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
@@ -16874,7 +16870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q402"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F1" sqref="F1:I1"/>
     </sheetView>
@@ -16892,19 +16888,19 @@
   <sheetData>
     <row r="1" spans="1:17" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="F1" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
       <c r="J1" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
       <c r="N1" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O1" s="11"/>
       <c r="P1" s="11"/>
@@ -16936,7 +16932,7 @@
         <v>36</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>34</v>
@@ -16948,7 +16944,7 @@
         <v>36</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>34</v>
